--- a/src/main/resources/excel-template/identify.xlsx
+++ b/src/main/resources/excel-template/identify.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3550DD-9CD5-495D-A994-789EF9B246CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93517A-DACA-4B8E-90A7-BB2194F50DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>t.name</t>
   </si>
   <si>
-    <t>t.sellStatus</t>
-  </si>
-  <si>
     <t>fd:(t.refundTime;yyyy-MM-dd)</t>
   </si>
   <si>
@@ -137,6 +134,10 @@
   </si>
   <si>
     <t>t.sourceWayStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.sellStatusStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +521,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -548,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -635,49 +636,49 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel-template/identify.xlsx
+++ b/src/main/resources/excel-template/identify.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93517A-DACA-4B8E-90A7-BB2194F50DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8AEE39-42FE-415C-A348-32D410BA5A4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>序号</t>
   </si>
@@ -138,6 +138,14 @@
   </si>
   <si>
     <t>t.sellStatusStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.productTypeStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -540,14 +548,14 @@
     <col min="12" max="12" width="6.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="16" width="9.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -567,9 +575,10 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="6"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,16 +625,19 @@
         <v>14</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -672,18 +684,21 @@
         <v>30</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
